--- a/Documentos/G5-PA-Planilha Acompanhamento.xlsx
+++ b/Documentos/G5-PA-Planilha Acompanhamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="SysHotel" sheetId="1" r:id="rId1"/>
@@ -249,6 +249,8 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,8 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +397,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,11 +423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="166845080"/>
-        <c:axId val="231750720"/>
+        <c:axId val="251023712"/>
+        <c:axId val="251024888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166845080"/>
+        <c:axId val="251023712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231750720"/>
+        <c:crossAx val="251024888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,7 +455,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231750720"/>
+        <c:axId val="251024888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +508,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166845080"/>
+        <c:crossAx val="251023712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -841,15 +841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -989,7 +989,7 @@
       <c r="C7" s="6">
         <v>42142</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <v>42143</v>
       </c>
       <c r="E7" s="5">
@@ -1014,7 +1014,7 @@
       <c r="C8" s="6">
         <v>42144</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>42144</v>
       </c>
       <c r="E8" s="5">
@@ -1039,7 +1039,7 @@
       <c r="C9" s="6">
         <v>42146</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <v>42148</v>
       </c>
       <c r="E9" s="5">
@@ -1061,22 +1061,22 @@
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>42149</v>
       </c>
-      <c r="D10" s="13">
-        <v>42150</v>
+      <c r="D10" s="9">
+        <v>42170</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" s="7">
         <f>((SUM('Tar 8'!B3:B42))*100)/E10</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Fechado</v>
+        <v>Aberto</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -1322,11 +1322,11 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1377,11 +1377,11 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1432,11 +1432,11 @@
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1489,11 +1489,11 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1556,11 +1556,11 @@
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1615,11 +1615,11 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1666,11 +1666,11 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1697,7 +1697,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="10">
         <v>42148</v>
       </c>
       <c r="B5">
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1725,11 +1725,11 @@
     <col min="1" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1744,16 +1744,12 @@
         <v>42149</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>42150</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentos/G5-PA-Planilha Acompanhamento.xlsx
+++ b/Documentos/G5-PA-Planilha Acompanhamento.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SysHotel" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,11 +423,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="251023712"/>
-        <c:axId val="251024888"/>
+        <c:axId val="208604008"/>
+        <c:axId val="208606440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="251023712"/>
+        <c:axId val="208604008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251024888"/>
+        <c:crossAx val="208606440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -455,7 +455,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="251024888"/>
+        <c:axId val="208606440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +508,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251023712"/>
+        <c:crossAx val="208604008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1072,11 +1072,11 @@
       </c>
       <c r="F10" s="7">
         <f>((SUM('Tar 8'!B3:B42))*100)/E10</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Aberto</v>
+        <v>Fechado</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -1716,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,8 +1748,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>42169</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
